--- a/script_master_data_beltran/ficherosExcelOrigen/DED-DEVOPS_Adopcion IA_v2a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-DEVOPS_Adopcion IA_v2a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E5993-2B59-4675-B19F-09B32D9565B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894600D6-5442-4FEF-A333-FDD10CB139DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -36324,29 +36324,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -36547,25 +36524,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A31710-26E2-46B2-AADC-9E8F69C57821}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36582,4 +36564,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/script_master_data_beltran/ficherosExcelOrigen/DED-DEVOPS_Adopcion IA_v2a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-DEVOPS_Adopcion IA_v2a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894600D6-5442-4FEF-A333-FDD10CB139DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF6F471-7DC2-429D-AB3F-DCC880991D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21715,10 +21715,10 @@
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
+      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36324,6 +36324,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -36524,30 +36547,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A31710-26E2-46B2-AADC-9E8F69C57821}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36564,22 +36582,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>